--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rechard\Documents\Projects\Stratasys Uprint\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rechard\Documents\Projects\Stratasys-Uprint-SE-Retrofit\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>STEPPERONLINE 51:1 Planetary Gearbox Nema 14 Stepper Motor</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/51-Planetary-Gearbox-Stepper-Robotics/dp/B00PNEQZHA/ref=sr_1_1?crid=32GNV9U1SUX83&amp;keywords=geared+nema+14&amp;qid=1659076183&amp;sprefix=geared+nema+14%2Caps%2C363&amp;sr=8-1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Trianglelab PT100 4-wire Kit</t>
   </si>
@@ -96,6 +90,72 @@
   </si>
   <si>
     <t>Sub Total</t>
+  </si>
+  <si>
+    <t>688ZZ Ball Bearing</t>
+  </si>
+  <si>
+    <t>Relay 8 Channel</t>
+  </si>
+  <si>
+    <t>Round Stock Aluminum</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>https://www.pishop.co.za/store/eight-channel-5v-dc-relay-module</t>
+  </si>
+  <si>
+    <t>https://www.robotics.org.za/688ZZ</t>
+  </si>
+  <si>
+    <t>https://www.rabtron.co.za/solid-state-relays/10419-ssr-25da-solid-state-relay-3-32v-control-25a.html</t>
+  </si>
+  <si>
+    <t>SSR-25DA Solid State Relay 3-32V Control 25A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRASS NICKEL PLATED M3x35mm FEMALE TO FEMALE 5AF </t>
+  </si>
+  <si>
+    <t>https://www.mantech.co.za/ProductInfo.aspx?Item=14M0341-H</t>
+  </si>
+  <si>
+    <t>For the custom extruder parts.</t>
+  </si>
+  <si>
+    <t>For the custom extruder.</t>
+  </si>
+  <si>
+    <t>One for each hotend.</t>
+  </si>
+  <si>
+    <t>To control the enclosure heaters.</t>
+  </si>
+  <si>
+    <t>To control extras.</t>
+  </si>
+  <si>
+    <t>Din Rail TS35</t>
+  </si>
+  <si>
+    <t>Comes in 2 meter sections.</t>
+  </si>
+  <si>
+    <t>Din Rail Terminal End Cover</t>
+  </si>
+  <si>
+    <t>Din Rail Endstop</t>
+  </si>
+  <si>
+    <t>Din Rail Terminal</t>
+  </si>
+  <si>
+    <t>Local Seller : No Website</t>
+  </si>
+  <si>
+    <t>*Wire, crimps and misc parts not listed*</t>
   </si>
 </sst>
 </file>
@@ -164,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -174,6 +234,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,210 +563,398 @@
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5">
+        <v>129.9</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E4" si="0">A2*D2</f>
+        <v>129.9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
-        <v>1060.06</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E11" si="0">A2*D2</f>
-        <v>1060.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>3</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>422.1</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
       </c>
       <c r="E3" s="7">
-        <f>A3*D3</f>
-        <v>1266.3000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1331.99</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5">
+        <v>342.48</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>1331.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>342.48</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>215</v>
+        <v>422.1</v>
       </c>
       <c r="E5" s="7">
         <f>A5*D5</f>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>844.2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7">
+        <f>A6*D6</f>
+        <v>92</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1331.99</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:E18" si="1">A7*D7</f>
+        <v>1331.99</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>215</v>
+      </c>
+      <c r="E8" s="7">
+        <f>A8*D8</f>
+        <v>430</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7">
+        <v>39.14</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>39.14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9.61</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>240.25</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>24.8</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
-        <v>90</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="D14" s="4">
+        <v>300</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
-        <v>300</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.57</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>22.28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>180</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>153.86000000000001</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4">
-        <v>180</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7">
-        <v>76.930000000000007</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>153.86000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <f>SUM(E2:E10)</f>
-        <v>5577.21</v>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <f>SUM(E2:E18)</f>
+        <v>4605.1999999999989</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C18" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>